--- a/doc/04_DB定義書_イフリート.xlsx
+++ b/doc/04_DB定義書_イフリート.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\６月研修\PlusDojo6月作成ドキュメントテンプレート\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBC8820-20FF-4F36-87A3-FDC84646C9A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7284F424-D610-4DBD-B252-B17BA945DF2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="74">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -237,20 +237,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ランキング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザ名</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ポイント数</t>
-    <rPh sb="4" eb="5">
-      <t>スウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -382,6 +371,91 @@
     <rPh sb="0" eb="4">
       <t>モクヒョウキンガク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buyttertime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buypic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nbcount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日時</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムスタンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pcount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cpic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>累計ポイント数</t>
+    <rPh sb="0" eb="2">
+      <t>ルイケイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度低め</t>
+    <rPh sb="0" eb="4">
+      <t>ユウセンドヒク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索履歴</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクリレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shistory</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -831,10 +905,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K256"/>
+  <dimension ref="A1:K255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -936,21 +1010,21 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8" s="3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -963,10 +1037,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="F9" s="3">
         <v>20</v>
@@ -974,7 +1048,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -984,13 +1058,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" s="3">
         <v>20</v>
@@ -998,7 +1072,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1008,24 +1082,24 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K11" s="3"/>
     </row>
@@ -1033,29 +1107,45 @@
       <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
@@ -1339,10 +1429,10 @@
         <v>26</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F37" s="3">
         <v>20</v>
@@ -1350,7 +1440,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -1363,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -1385,16 +1475,16 @@
         <v>28</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -1404,24 +1494,24 @@
         <v>4</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K40" s="3"/>
     </row>
@@ -1429,29 +1519,45 @@
       <c r="B41" s="3">
         <v>5</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
+      <c r="K41" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="3">
         <v>6</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
+      <c r="K42" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="3">
@@ -1831,19 +1937,19 @@
         <v>1</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
@@ -1856,16 +1962,16 @@
         <v>30</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -1875,16 +1981,16 @@
         <v>3</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F78" s="3">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -1897,16 +2003,16 @@
         <v>4</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F79" s="3">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -1919,24 +2025,24 @@
         <v>5</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K80" s="3"/>
     </row>
@@ -1944,29 +2050,45 @@
       <c r="B81" s="3">
         <v>6</v>
       </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
+      <c r="C81" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
+      <c r="K81" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82" s="3">
         <v>7</v>
       </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
+      <c r="C82" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
+      <c r="K82" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" s="3">
@@ -2278,7 +2400,7 @@
         <v>15</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>5</v>
@@ -2332,14 +2454,22 @@
         <v>1</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F115" s="3">
+        <v>20</v>
+      </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
+      <c r="I115" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
     </row>
@@ -2348,14 +2478,20 @@
         <v>2</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
+      <c r="I116" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
     </row>
@@ -2364,11 +2500,17 @@
         <v>3</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F117" s="3">
+        <v>140</v>
+      </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
@@ -2380,11 +2522,17 @@
         <v>4</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F118" s="3">
+        <v>140</v>
+      </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
@@ -2396,10 +2544,14 @@
         <v>5</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
@@ -2411,52 +2563,88 @@
       <c r="B120" s="3">
         <v>6</v>
       </c>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
+      <c r="C120" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
+      <c r="G120" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
+      <c r="I120" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="K120" s="3"/>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B121" s="3">
         <v>7</v>
       </c>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
+      <c r="C121" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
-      <c r="K121" s="3"/>
+      <c r="K121" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B122" s="3">
         <v>8</v>
       </c>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
+      <c r="C122" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
-      <c r="K122" s="3"/>
+      <c r="K122" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B123" s="3">
         <v>9</v>
       </c>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
+      <c r="C123" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F123" s="3">
+        <v>140</v>
+      </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
@@ -2801,12 +2989,20 @@
       <c r="C153" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
+      <c r="D153" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F153" s="3">
+        <v>20</v>
+      </c>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
-      <c r="I153" s="3"/>
+      <c r="I153" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
     </row>
@@ -2815,14 +3011,20 @@
         <v>2</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
-      <c r="I154" s="3"/>
+      <c r="I154" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
     </row>
@@ -2831,60 +3033,94 @@
         <v>3</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F155" s="3">
+        <v>140</v>
+      </c>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
-      <c r="K155" s="3"/>
+      <c r="K155" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B156" s="3">
         <v>4</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F156" s="3"/>
-      <c r="G156" s="3"/>
+      <c r="G156" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="H156" s="3"/>
-      <c r="I156" s="3"/>
-      <c r="J156" s="3"/>
+      <c r="I156" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="K156" s="3"/>
     </row>
     <row r="157" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B157" s="3">
         <v>5</v>
       </c>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
+      <c r="C157" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
-      <c r="K157" s="3"/>
+      <c r="K157" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B158" s="3">
         <v>6</v>
       </c>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
+      <c r="C158" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
-      <c r="K158" s="3"/>
+      <c r="K158" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B159" s="3">
@@ -2972,7 +3208,7 @@
     </row>
     <row r="165" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B165" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -2986,7 +3222,7 @@
     </row>
     <row r="166" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B166" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -3000,7 +3236,7 @@
     </row>
     <row r="167" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B167" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -3014,7 +3250,7 @@
     </row>
     <row r="168" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B168" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -3028,7 +3264,7 @@
     </row>
     <row r="169" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B169" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -3042,7 +3278,7 @@
     </row>
     <row r="170" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B170" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -3056,7 +3292,7 @@
     </row>
     <row r="171" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B171" s="3">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -3068,31 +3304,23 @@
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
     </row>
-    <row r="172" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B172" s="3">
-        <v>20</v>
-      </c>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
-      <c r="I172" s="3"/>
-      <c r="J172" s="3"/>
-      <c r="K172" s="3"/>
+    <row r="174" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B174" s="1"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="3"/>
     </row>
     <row r="175" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B175" s="1"/>
       <c r="C175" s="2"/>
       <c r="D175" s="1"/>
-      <c r="E175" s="3"/>
+      <c r="E175" s="5"/>
     </row>
     <row r="176" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B176" s="1"/>
-      <c r="C176" s="2"/>
+      <c r="C176" s="3"/>
       <c r="D176" s="1"/>
-      <c r="E176" s="5"/>
+      <c r="E176" s="3"/>
     </row>
     <row r="177" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B177" s="1"/>
@@ -3100,23 +3328,29 @@
       <c r="D177" s="1"/>
       <c r="E177" s="3"/>
     </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B178" s="1"/>
-      <c r="C178" s="3"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="3"/>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
-      <c r="K180" s="1"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
+      <c r="I180" s="3"/>
+      <c r="J180" s="3"/>
+      <c r="K180" s="3"/>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B181" s="3"/>
@@ -3346,29 +3580,23 @@
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
     </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
-      <c r="J200" s="3"/>
-      <c r="K200" s="3"/>
+    <row r="202" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B202" s="1"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="3"/>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B203" s="1"/>
       <c r="C203" s="2"/>
       <c r="D203" s="1"/>
-      <c r="E203" s="3"/>
+      <c r="E203" s="5"/>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B204" s="1"/>
-      <c r="C204" s="2"/>
+      <c r="C204" s="3"/>
       <c r="D204" s="1"/>
-      <c r="E204" s="5"/>
+      <c r="E204" s="3"/>
     </row>
     <row r="205" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B205" s="1"/>
@@ -3376,23 +3604,29 @@
       <c r="D205" s="1"/>
       <c r="E205" s="3"/>
     </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B206" s="1"/>
-      <c r="C206" s="3"/>
-      <c r="D206" s="1"/>
-      <c r="E206" s="3"/>
+    <row r="207" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
     </row>
     <row r="208" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
-      <c r="H208" s="1"/>
-      <c r="I208" s="1"/>
-      <c r="J208" s="1"/>
-      <c r="K208" s="1"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
+      <c r="I208" s="3"/>
+      <c r="J208" s="3"/>
+      <c r="K208" s="3"/>
     </row>
     <row r="209" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B209" s="3"/>
@@ -3622,29 +3856,23 @@
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
     </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B228" s="3"/>
-      <c r="C228" s="3"/>
-      <c r="D228" s="3"/>
-      <c r="E228" s="3"/>
-      <c r="F228" s="3"/>
-      <c r="G228" s="3"/>
-      <c r="H228" s="3"/>
-      <c r="I228" s="3"/>
-      <c r="J228" s="3"/>
-      <c r="K228" s="3"/>
+    <row r="230" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B230" s="1"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="3"/>
     </row>
     <row r="231" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B231" s="1"/>
       <c r="C231" s="2"/>
       <c r="D231" s="1"/>
-      <c r="E231" s="3"/>
+      <c r="E231" s="5"/>
     </row>
     <row r="232" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B232" s="1"/>
-      <c r="C232" s="2"/>
+      <c r="C232" s="3"/>
       <c r="D232" s="1"/>
-      <c r="E232" s="5"/>
+      <c r="E232" s="3"/>
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B233" s="1"/>
@@ -3652,23 +3880,29 @@
       <c r="D233" s="1"/>
       <c r="E233" s="3"/>
     </row>
-    <row r="234" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B234" s="1"/>
-      <c r="C234" s="3"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="3"/>
+    <row r="235" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+      <c r="J235" s="1"/>
+      <c r="K235" s="1"/>
     </row>
     <row r="236" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B236" s="1"/>
-      <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
-      <c r="E236" s="1"/>
-      <c r="F236" s="1"/>
-      <c r="G236" s="1"/>
-      <c r="H236" s="1"/>
-      <c r="I236" s="1"/>
-      <c r="J236" s="1"/>
-      <c r="K236" s="1"/>
+      <c r="B236" s="3"/>
+      <c r="C236" s="3"/>
+      <c r="D236" s="3"/>
+      <c r="E236" s="3"/>
+      <c r="F236" s="3"/>
+      <c r="G236" s="3"/>
+      <c r="H236" s="3"/>
+      <c r="I236" s="3"/>
+      <c r="J236" s="3"/>
+      <c r="K236" s="3"/>
     </row>
     <row r="237" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B237" s="3"/>
@@ -3897,18 +4131,6 @@
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
       <c r="K255" s="3"/>
-    </row>
-    <row r="256" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B256" s="3"/>
-      <c r="C256" s="3"/>
-      <c r="D256" s="3"/>
-      <c r="E256" s="3"/>
-      <c r="F256" s="3"/>
-      <c r="G256" s="3"/>
-      <c r="H256" s="3"/>
-      <c r="I256" s="3"/>
-      <c r="J256" s="3"/>
-      <c r="K256" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
